--- a/Tgg.xlsx
+++ b/Tgg.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t>Index</t>
   </si>
@@ -33,186 +33,6 @@
   </si>
   <si>
     <t>Tg</t>
-  </si>
-  <si>
-    <t>−50.0178</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> −324.9730</t>
-  </si>
-  <si>
-    <t>−889.1739</t>
-  </si>
-  <si>
-    <t>−98.8344</t>
-  </si>
-  <si>
-    <t>−223.2520</t>
-  </si>
-  <si>
-    <t>−716.3426</t>
-  </si>
-  <si>
-    <t>−286.2433</t>
-  </si>
-  <si>
-    <t>−458.8428</t>
-  </si>
-  <si>
-    <t>−477.3837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">−704.9683 </t>
-  </si>
-  <si>
-    <t>−536.6563</t>
-  </si>
-  <si>
-    <t>−510.9593</t>
-  </si>
-  <si>
-    <t>−2515.0488</t>
-  </si>
-  <si>
-    <t>−4050.9702</t>
-  </si>
-  <si>
-    <t>−1301.0913</t>
-  </si>
-  <si>
-    <t>−367.8203</t>
-  </si>
-  <si>
-    <t>−1051.8587</t>
-  </si>
-  <si>
-    <t>−918.0995</t>
-  </si>
-  <si>
-    <t>−511.4806</t>
-  </si>
-  <si>
-    <t>−2524.2913</t>
-  </si>
-  <si>
-    <t>−1415.7591</t>
-  </si>
-  <si>
-    <t>−474.2108</t>
-  </si>
-  <si>
-    <t>−195.7518</t>
-  </si>
-  <si>
-    <t>−536.7889</t>
-  </si>
-  <si>
-    <t>−104.2434</t>
-  </si>
-  <si>
-    <t>−303.4541</t>
-  </si>
-  <si>
-    <t>−240.3014</t>
-  </si>
-  <si>
-    <t>−802.8461</t>
-  </si>
-  <si>
-    <t>−602.6258</t>
-  </si>
-  <si>
-    <t>−644.5946</t>
-  </si>
-  <si>
-    <t>−707.0980</t>
-  </si>
-  <si>
-    <t>−165.3425</t>
-  </si>
-  <si>
-    <t>−573.5125</t>
-  </si>
-  <si>
-    <t>−763.5746</t>
-  </si>
-  <si>
-    <t>−942.4947</t>
-  </si>
-  <si>
-    <t>−1023.5389</t>
-  </si>
-  <si>
-    <t>−1162.3670</t>
-  </si>
-  <si>
-    <t>−1556.3205</t>
-  </si>
-  <si>
-    <t>−2310.6755</t>
-  </si>
-  <si>
-    <t>−3875.9682</t>
-  </si>
-  <si>
-    <t>−861.9543</t>
-  </si>
-  <si>
-    <t>−704.7469</t>
-  </si>
-  <si>
-    <t>−1655.4510</t>
-  </si>
-  <si>
-    <t>−960.1252</t>
-  </si>
-  <si>
-    <t>−1124.6720</t>
-  </si>
-  <si>
-    <t>−369.3694</t>
-  </si>
-  <si>
-    <t>−819.0548</t>
-  </si>
-  <si>
-    <t>−696.3043</t>
-  </si>
-  <si>
-    <t>−1465.5384</t>
-  </si>
-  <si>
-    <t>−627.3794</t>
-  </si>
-  <si>
-    <t>−1051.9500</t>
-  </si>
-  <si>
-    <t>−1721.6799</t>
-  </si>
-  <si>
-    <t>−1000.3994</t>
-  </si>
-  <si>
-    <t>−1527.7505</t>
-  </si>
-  <si>
-    <t>−1353.6069</t>
-  </si>
-  <si>
-    <t>−893.9148</t>
-  </si>
-  <si>
-    <t>−1094.4131</t>
-  </si>
-  <si>
-    <t>−1712.1796</t>
-  </si>
-  <si>
-    <t>−2925.2411</t>
-  </si>
-  <si>
-    <t>−4966.1840</t>
   </si>
 </sst>
 </file>
@@ -536,7 +356,7 @@
   <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -568,8 +388,8 @@
       <c r="B2" s="1">
         <v>0.67759999999999998</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
+      <c r="C2" s="1">
+        <v>-50.017800000000001</v>
       </c>
       <c r="D2" s="1">
         <v>195</v>
@@ -582,8 +402,8 @@
       <c r="B3" s="1">
         <v>7.7949000000000002</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
+      <c r="C3" s="1">
+        <v>-324.97300000000001</v>
       </c>
       <c r="D3" s="1">
         <v>301</v>
@@ -596,8 +416,8 @@
       <c r="B4" s="1">
         <v>7.3902000000000001</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
+      <c r="C4" s="1">
+        <v>-889.1739</v>
       </c>
       <c r="D4" s="1">
         <v>324</v>
@@ -610,8 +430,8 @@
       <c r="B5" s="1">
         <v>3.8068</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
+      <c r="C5" s="1">
+        <v>-98.834400000000002</v>
       </c>
       <c r="D5" s="1">
         <v>233</v>
@@ -624,8 +444,8 @@
       <c r="B6" s="1">
         <v>5.0194000000000001</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>7</v>
+      <c r="C6" s="1">
+        <v>-223.25200000000001</v>
       </c>
       <c r="D6" s="1">
         <v>256</v>
@@ -638,8 +458,8 @@
       <c r="B7" s="1">
         <v>7.2233000000000001</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>8</v>
+      <c r="C7" s="1">
+        <v>-716.34259999999995</v>
       </c>
       <c r="D7" s="1">
         <v>329</v>
@@ -652,8 +472,8 @@
       <c r="B8" s="1">
         <v>3.5333999999999999</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>9</v>
+      <c r="C8" s="1">
+        <v>-286.24329999999998</v>
       </c>
       <c r="D8" s="1">
         <v>254</v>
@@ -666,8 +486,8 @@
       <c r="B9" s="1">
         <v>13.280799999999999</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>10</v>
+      <c r="C9" s="1">
+        <v>-458.84280000000001</v>
       </c>
       <c r="D9" s="1">
         <v>418</v>
@@ -680,8 +500,8 @@
       <c r="B10" s="1">
         <v>2.3828999999999998</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>11</v>
+      <c r="C10" s="1">
+        <v>-477.38369999999998</v>
       </c>
       <c r="D10" s="1">
         <v>293</v>
@@ -694,8 +514,8 @@
       <c r="B11" s="1">
         <v>2.8052000000000001</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>12</v>
+      <c r="C11" s="1">
+        <v>-704.9683</v>
       </c>
       <c r="D11" s="1">
         <v>221</v>
@@ -708,8 +528,8 @@
       <c r="B12" s="1">
         <v>3.0442</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>13</v>
+      <c r="C12" s="1">
+        <v>-536.65629999999999</v>
       </c>
       <c r="D12" s="1">
         <v>253</v>
@@ -722,8 +542,8 @@
       <c r="B13" s="1">
         <v>3.6810999999999998</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>14</v>
+      <c r="C13" s="1">
+        <v>-510.95929999999998</v>
       </c>
       <c r="D13" s="1">
         <v>251</v>
@@ -736,8 +556,8 @@
       <c r="B14" s="1">
         <v>1.2418</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>15</v>
+      <c r="C14" s="1">
+        <v>-2515.0488</v>
       </c>
       <c r="D14" s="1">
         <v>194</v>
@@ -750,8 +570,8 @@
       <c r="B15" s="1">
         <v>6.8052000000000001</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>16</v>
+      <c r="C15" s="1">
+        <v>-4050.9702000000002</v>
       </c>
       <c r="D15" s="1">
         <v>197</v>
@@ -764,8 +584,8 @@
       <c r="B16" s="1">
         <v>17.580300000000001</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>17</v>
+      <c r="C16" s="1">
+        <v>-1301.0913</v>
       </c>
       <c r="D16" s="1">
         <v>423</v>
@@ -778,8 +598,8 @@
       <c r="B17" s="1">
         <v>3.3098000000000001</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>18</v>
+      <c r="C17" s="1">
+        <v>-367.82029999999997</v>
       </c>
       <c r="D17" s="1">
         <v>270</v>
@@ -792,8 +612,8 @@
       <c r="B18" s="1">
         <v>14.6455</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>19</v>
+      <c r="C18" s="1">
+        <v>-1051.8587</v>
       </c>
       <c r="D18" s="1">
         <v>424</v>
@@ -806,8 +626,8 @@
       <c r="B19" s="1">
         <v>14.2807</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>20</v>
+      <c r="C19" s="1">
+        <v>-918.09950000000003</v>
       </c>
       <c r="D19" s="1">
         <v>432</v>
@@ -820,8 +640,8 @@
       <c r="B20" s="1">
         <v>11.535399999999999</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>21</v>
+      <c r="C20" s="1">
+        <v>-511.48059999999998</v>
       </c>
       <c r="D20" s="1">
         <v>348</v>
@@ -834,8 +654,8 @@
       <c r="B21" s="1">
         <v>2.1185999999999998</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>22</v>
+      <c r="C21" s="1">
+        <v>-2524.2912999999999</v>
       </c>
       <c r="D21" s="1">
         <v>207</v>
@@ -848,8 +668,8 @@
       <c r="B22" s="1">
         <v>3.2549999999999999</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>23</v>
+      <c r="C22" s="1">
+        <v>-1415.7591</v>
       </c>
       <c r="D22" s="1">
         <v>209</v>
@@ -862,8 +682,8 @@
       <c r="B23" s="1">
         <v>11.5756</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>24</v>
+      <c r="C23" s="1">
+        <v>-474.21080000000001</v>
       </c>
       <c r="D23" s="1">
         <v>415</v>
@@ -876,8 +696,8 @@
       <c r="B24" s="1">
         <v>1.0142</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>25</v>
+      <c r="C24" s="1">
+        <v>-195.7518</v>
       </c>
       <c r="D24" s="1">
         <v>228</v>
@@ -890,8 +710,8 @@
       <c r="B25" s="1">
         <v>1.702</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>26</v>
+      <c r="C25" s="1">
+        <v>-536.78890000000001</v>
       </c>
       <c r="D25" s="1">
         <v>220</v>
@@ -904,8 +724,8 @@
       <c r="B26" s="1">
         <v>0.66100000000000003</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>27</v>
+      <c r="C26" s="1">
+        <v>-104.24339999999999</v>
       </c>
       <c r="D26" s="1">
         <v>233</v>
@@ -918,8 +738,8 @@
       <c r="B27" s="1">
         <v>0.87</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>28</v>
+      <c r="C27" s="1">
+        <v>-303.45409999999998</v>
       </c>
       <c r="D27" s="1">
         <v>220</v>
@@ -932,8 +752,8 @@
       <c r="B28" s="1">
         <v>8.4681999999999995</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>29</v>
+      <c r="C28" s="1">
+        <v>-240.3014</v>
       </c>
       <c r="D28" s="1">
         <v>373</v>
@@ -946,8 +766,8 @@
       <c r="B29" s="1">
         <v>2.0449999999999999</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>30</v>
+      <c r="C29" s="1">
+        <v>-802.84609999999998</v>
       </c>
       <c r="D29" s="1">
         <v>220</v>
@@ -960,8 +780,8 @@
       <c r="B30" s="1">
         <v>8.5429999999999993</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>31</v>
+      <c r="C30" s="1">
+        <v>-602.62580000000003</v>
       </c>
       <c r="D30" s="1">
         <v>331</v>
@@ -974,8 +794,8 @@
       <c r="B31" s="1">
         <v>1.3176000000000001</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>32</v>
+      <c r="C31" s="1">
+        <v>-644.59460000000001</v>
       </c>
       <c r="D31" s="1">
         <v>259</v>
@@ -988,8 +808,8 @@
       <c r="B32" s="1">
         <v>8.016</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>33</v>
+      <c r="C32" s="1">
+        <v>-707.09799999999996</v>
       </c>
       <c r="D32" s="1">
         <v>333</v>
@@ -1002,8 +822,8 @@
       <c r="B33" s="1">
         <v>1.0066999999999999</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>34</v>
+      <c r="C33" s="1">
+        <v>-165.3425</v>
       </c>
       <c r="D33" s="1">
         <v>269</v>
@@ -1016,8 +836,8 @@
       <c r="B34" s="1">
         <v>10.520799999999999</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>35</v>
+      <c r="C34" s="1">
+        <v>-573.51250000000005</v>
       </c>
       <c r="D34" s="1">
         <v>324</v>
@@ -1030,8 +850,8 @@
       <c r="B35" s="1">
         <v>10.6624</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>36</v>
+      <c r="C35" s="1">
+        <v>-763.57460000000003</v>
       </c>
       <c r="D35" s="1">
         <v>363</v>
@@ -1044,8 +864,8 @@
       <c r="B36" s="1">
         <v>10.7744</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>37</v>
+      <c r="C36" s="1">
+        <v>-942.49469999999997</v>
       </c>
       <c r="D36" s="1">
         <v>344</v>
@@ -1058,8 +878,8 @@
       <c r="B37" s="1">
         <v>10.013500000000001</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>38</v>
+      <c r="C37" s="1">
+        <v>-1023.5389</v>
       </c>
       <c r="D37" s="1">
         <v>337</v>
@@ -1072,8 +892,8 @@
       <c r="B38" s="1">
         <v>8.2807999999999993</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>39</v>
+      <c r="C38" s="1">
+        <v>-1162.367</v>
       </c>
       <c r="D38" s="1">
         <v>306</v>
@@ -1086,8 +906,8 @@
       <c r="B39" s="1">
         <v>6.1506999999999996</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>40</v>
+      <c r="C39" s="1">
+        <v>-1556.3205</v>
       </c>
       <c r="D39" s="1">
         <v>284</v>
@@ -1100,8 +920,8 @@
       <c r="B40" s="1">
         <v>9.0823</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>41</v>
+      <c r="C40" s="1">
+        <v>-2310.6754999999998</v>
       </c>
       <c r="D40" s="1">
         <v>274</v>
@@ -1114,8 +934,8 @@
       <c r="B41" s="1">
         <v>7.2767999999999997</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>42</v>
+      <c r="C41" s="1">
+        <v>-3875.9681999999998</v>
       </c>
       <c r="D41" s="1">
         <v>228</v>
@@ -1128,8 +948,8 @@
       <c r="B42" s="1">
         <v>10.0625</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>43</v>
+      <c r="C42" s="1">
+        <v>-861.95429999999999</v>
       </c>
       <c r="D42" s="1">
         <v>308</v>
@@ -1142,8 +962,8 @@
       <c r="B43" s="1">
         <v>10.0824</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>44</v>
+      <c r="C43" s="1">
+        <v>-704.74689999999998</v>
       </c>
       <c r="D43" s="1">
         <v>354</v>
@@ -1156,8 +976,8 @@
       <c r="B44" s="1">
         <v>10.2182</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>45</v>
+      <c r="C44" s="1">
+        <v>-1655.451</v>
       </c>
       <c r="D44" s="1">
         <v>318</v>
@@ -1170,8 +990,8 @@
       <c r="B45" s="1">
         <v>9.0868000000000002</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>46</v>
+      <c r="C45" s="1">
+        <v>-960.12519999999995</v>
       </c>
       <c r="D45" s="1">
         <v>330</v>
@@ -1184,8 +1004,8 @@
       <c r="B46" s="1">
         <v>14.344200000000001</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>47</v>
+      <c r="C46" s="1">
+        <v>-1124.672</v>
       </c>
       <c r="D46" s="1">
         <v>407</v>
@@ -1198,8 +1018,8 @@
       <c r="B47" s="1">
         <v>10.9884</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>48</v>
+      <c r="C47" s="1">
+        <v>-369.36939999999998</v>
       </c>
       <c r="D47" s="1">
         <v>378</v>
@@ -1212,8 +1032,8 @@
       <c r="B48" s="1">
         <v>10.0572</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>49</v>
+      <c r="C48" s="1">
+        <v>-819.0548</v>
       </c>
       <c r="D48" s="1">
         <v>380</v>
@@ -1226,8 +1046,8 @@
       <c r="B49" s="1">
         <v>13.3062</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>50</v>
+      <c r="C49" s="1">
+        <v>-696.30430000000001</v>
       </c>
       <c r="D49" s="1">
         <v>396</v>
@@ -1240,8 +1060,8 @@
       <c r="B50" s="1">
         <v>6.8578000000000001</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>51</v>
+      <c r="C50" s="1">
+        <v>-1465.5383999999999</v>
       </c>
       <c r="D50" s="1">
         <v>299</v>
@@ -1254,8 +1074,8 @@
       <c r="B51" s="1">
         <v>11.7166</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>52</v>
+      <c r="C51" s="1">
+        <v>-627.37940000000003</v>
       </c>
       <c r="D51" s="1">
         <v>366</v>
@@ -1268,8 +1088,8 @@
       <c r="B52" s="1">
         <v>10.007999999999999</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>53</v>
+      <c r="C52" s="1">
+        <v>-1051.95</v>
       </c>
       <c r="D52" s="1">
         <v>347</v>
@@ -1282,8 +1102,8 @@
       <c r="B53" s="1">
         <v>8.3170000000000002</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>54</v>
+      <c r="C53" s="1">
+        <v>-1721.6799000000001</v>
       </c>
       <c r="D53" s="1">
         <v>268</v>
@@ -1296,8 +1116,8 @@
       <c r="B54" s="1">
         <v>10.5548</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>55</v>
+      <c r="C54" s="1">
+        <v>-1000.3994</v>
       </c>
       <c r="D54" s="1">
         <v>341</v>
@@ -1310,8 +1130,8 @@
       <c r="B55" s="1">
         <v>15.189399999999999</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>56</v>
+      <c r="C55" s="1">
+        <v>-1527.7505000000001</v>
       </c>
       <c r="D55" s="1">
         <v>398</v>
@@ -1324,8 +1144,8 @@
       <c r="B56" s="1">
         <v>18.463000000000001</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>57</v>
+      <c r="C56" s="1">
+        <v>-1353.6069</v>
       </c>
       <c r="D56" s="1">
         <v>440</v>
@@ -1338,8 +1158,8 @@
       <c r="B57" s="1">
         <v>9.1435999999999993</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>58</v>
+      <c r="C57" s="1">
+        <v>-893.91480000000001</v>
       </c>
       <c r="D57" s="1">
         <v>351</v>
@@ -1352,8 +1172,8 @@
       <c r="B58" s="1">
         <v>8.8336000000000006</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>59</v>
+      <c r="C58" s="1">
+        <v>-1094.4131</v>
       </c>
       <c r="D58" s="1">
         <v>348</v>
@@ -1366,8 +1186,8 @@
       <c r="B59" s="1">
         <v>8.6143999999999998</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>60</v>
+      <c r="C59" s="1">
+        <v>-1712.1795999999999</v>
       </c>
       <c r="D59" s="1">
         <v>306</v>
@@ -1380,8 +1200,8 @@
       <c r="B60" s="1">
         <v>7.0039999999999996</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>61</v>
+      <c r="C60" s="1">
+        <v>-2925.2411000000002</v>
       </c>
       <c r="D60" s="1">
         <v>274</v>
@@ -1394,8 +1214,8 @@
       <c r="B61" s="1">
         <v>5.1566999999999998</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>62</v>
+      <c r="C61" s="1">
+        <v>-4966.1840000000002</v>
       </c>
       <c r="D61" s="1">
         <v>208</v>
